--- a/Mifos Automation Excels/Client/4582-RBI-DISBLOANON02JAN-INDCOLLSHEETON16JAN.xlsx
+++ b/Mifos Automation Excels/Client/4582-RBI-DISBLOANON02JAN-INDCOLLSHEETON16JAN.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -575,13 +575,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="43.875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,14 +689,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,15 +746,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -789,17 +793,18 @@
       <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -825,8 +830,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -861,17 +867,18 @@
       <c r="L3" s="6">
         <v>856.41</v>
       </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>856.41</v>
       </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -906,17 +913,18 @@
       <c r="L4" s="6">
         <v>856.41</v>
       </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
+      <c r="M4" s="6"/>
       <c r="N4" s="6">
         <v>0</v>
       </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -949,17 +957,18 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="P5" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -992,17 +1001,18 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1035,17 +1045,18 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="P7" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1078,17 +1089,18 @@
       <c r="L8" s="6">
         <v>0</v>
       </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
+      <c r="M8" s="6"/>
       <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="P8" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1121,17 +1133,18 @@
       <c r="L9" s="6">
         <v>0</v>
       </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
+      <c r="M9" s="6"/>
       <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="P9" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1164,17 +1177,18 @@
       <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
+      <c r="M10" s="6"/>
       <c r="N10" s="6">
         <v>0</v>
       </c>
-      <c r="P10" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1207,17 +1221,18 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
+      <c r="M11" s="6"/>
       <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="P11" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1250,17 +1265,18 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
+      <c r="M12" s="6"/>
       <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="P12" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1293,17 +1309,18 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
+      <c r="M13" s="6"/>
       <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="P13" s="6">
-        <v>852.56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>852.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1336,13 +1353,14 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="P14" s="6">
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>852.6</v>
       </c>
     </row>
